--- a/uploads/MMHR-LEADING CAUSES TABULATION.xlsx
+++ b/uploads/MMHR-LEADING CAUSES TABULATION.xlsx
@@ -28,21 +28,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>NHIP</t>
   </si>
   <si>
     <t>NNHIP</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>TYPHOID FEVER</t>
   </si>
   <si>
     <t>A01.0</t>
   </si>
   <si>
+    <t>test again</t>
+  </si>
+  <si>
     <t>ERYSIPELAS</t>
   </si>
   <si>
@@ -479,9 +482,6 @@
   </si>
   <si>
     <t>Z38.0</t>
-  </si>
-  <si>
-    <t>test again</t>
   </si>
   <si>
     <t>MORTALITY DX</t>
@@ -2647,7 +2647,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A52">
       <selection activeCell="C76" sqref="C76"/>
@@ -2662,33 +2662,37 @@
     <col min="5" max="5" width="8.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="180" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="178" t="s">
         <v>3</v>
       </c>
@@ -2699,825 +2703,825 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="181">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="181">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="183" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="184" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customHeight="1" ht="15.75">
+    <row r="14" spans="1:10" customHeight="1" ht="15.75">
       <c r="A14" s="184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="181">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="181">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="181">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="181">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="181">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="176" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customHeight="1" ht="29.25">
+    <row r="34" spans="1:10" customHeight="1" ht="29.25">
       <c r="A34" s="185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="183" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customHeight="1" ht="20.25">
+    <row r="36" spans="1:10" customHeight="1" ht="20.25">
       <c r="A36" s="178" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="176" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="184" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="190" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="184" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="184" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="178" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="176" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="178" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="179" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="178" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="181" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="185" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="183" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="178" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="179" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="178" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="179" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="178" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="176" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="176" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customHeight="1" ht="29.25">
+    <row r="48" spans="1:10" customHeight="1" ht="29.25">
       <c r="A48" s="185" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="183" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="191" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="192" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="193" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="189" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="176" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="184" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="183" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="178" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="181">
         <v>1</v>
       </c>
       <c r="E53" s="184" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="184" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="181" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="181">
         <v>1</v>
       </c>
       <c r="E54" s="184" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54" s="184">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="185" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="194" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="195" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="178" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="176" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="185" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="190" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="181">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="196" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="181" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="178" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="179" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="188" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B61" s="189" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B62" s="179" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="184" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B63" s="181" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="184" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B64" s="181" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B65" s="181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66" s="179" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B67" s="179" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="181">
         <v>2</v>
       </c>
       <c r="D67" s="184" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E67" s="184">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="184" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" s="181" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="184" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="181" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="183" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="188" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" s="189" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="178" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" s="176" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="184" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="181" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" customHeight="1" ht="43.5">
+    <row r="74" spans="1:10" customHeight="1" ht="43.5">
       <c r="A74" s="185" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" s="183" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="181">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="184" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="176" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="181">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="184" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" s="181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" s="181">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
@@ -3557,10 +3561,10 @@
         <v>153</v>
       </c>
       <c r="D1" s="174" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3635,10 +3639,10 @@
       <c r="A2" s="9"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="12.75" s="16" customFormat="1">
@@ -4021,10 +4025,10 @@
         <v>189</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>190</v>
@@ -4033,10 +4037,10 @@
         <v>153</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>191</v>
@@ -4045,18 +4049,18 @@
         <v>189</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="26.25">
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="12">
         <v>38</v>
@@ -4068,7 +4072,7 @@
         <v>192</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" s="14">
         <v>7</v>
@@ -4089,10 +4093,10 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="26.25">
       <c r="B4" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12">
         <v>37</v>
@@ -4123,10 +4127,10 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="26.25">
       <c r="B5" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="12">
         <v>8</v>
@@ -4151,10 +4155,10 @@
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="26.25">
       <c r="B6" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="23">
         <v>7</v>
@@ -4173,10 +4177,10 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="26.25">
       <c r="B7" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12">
         <v>6</v>
@@ -4191,10 +4195,10 @@
         <v>153</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>164</v>
@@ -4209,10 +4213,10 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="26.25">
       <c r="B8" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="12">
         <v>5</v>
@@ -4243,10 +4247,10 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="26.25">
       <c r="B9" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12">
         <v>5</v>
@@ -4277,10 +4281,10 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="26.25">
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="12">
         <v>5</v>
@@ -4299,10 +4303,10 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="26.25">
       <c r="B11" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12">
         <v>5</v>
@@ -4315,10 +4319,10 @@
         <v>153</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="30" t="s">
         <v>168</v>
@@ -4333,10 +4337,10 @@
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="26.25">
       <c r="B12" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="23">
         <v>5</v>
@@ -4365,10 +4369,10 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="26.25">
       <c r="B13" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
@@ -4397,10 +4401,10 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="26.25">
       <c r="B14" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12">
         <v>3</v>
@@ -4425,10 +4429,10 @@
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="26.25">
       <c r="B15" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -4455,10 +4459,10 @@
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="26.25">
       <c r="B16" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -4485,10 +4489,10 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="26.25">
       <c r="B17" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -4517,10 +4521,10 @@
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="26.25">
       <c r="B18" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -4547,10 +4551,10 @@
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="26.25">
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -4577,10 +4581,10 @@
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="26.25">
       <c r="B20" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
@@ -4607,10 +4611,10 @@
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="26.25">
       <c r="B21" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="12">
         <v>2</v>
@@ -4637,10 +4641,10 @@
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="26.25">
       <c r="B22" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="12">
         <v>2</v>
@@ -4659,10 +4663,10 @@
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="26.25">
       <c r="B23" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="12">
         <v>2</v>
@@ -4675,10 +4679,10 @@
         <v>153</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="30" t="s">
         <v>179</v>
@@ -4693,10 +4697,10 @@
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="26.25">
       <c r="B24" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
@@ -4727,10 +4731,10 @@
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="26.25">
       <c r="B25" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -4761,10 +4765,10 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="26.25">
       <c r="B26" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
@@ -4795,10 +4799,10 @@
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="26.25">
       <c r="B27" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="12">
         <v>2</v>
@@ -4817,10 +4821,10 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="26.25">
       <c r="B28" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" s="23">
         <v>2</v>
@@ -4839,10 +4843,10 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="26.25">
       <c r="B29" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" s="23">
         <v>2</v>
@@ -4861,10 +4865,10 @@
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="18.75">
       <c r="B30" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" s="12">
         <v>2</v>
@@ -4883,10 +4887,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="B31" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
@@ -4909,10 +4913,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="B33" s="39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
@@ -4921,10 +4925,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="B34" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -4933,10 +4937,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="B35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -4945,10 +4949,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="B36" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -4957,10 +4961,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="B37" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -4969,10 +4973,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="B38" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -4981,10 +4985,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="B39" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -4996,7 +5000,7 @@
         <v>213</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -5005,10 +5009,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="B41" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -5017,10 +5021,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="B42" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="12">
         <v>1</v>
@@ -5029,10 +5033,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="B43" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -5041,10 +5045,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D44" s="12">
         <v>1</v>
@@ -5053,10 +5057,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="B45" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -5068,7 +5072,7 @@
         <v>214</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5077,10 +5081,10 @@
     </row>
     <row r="47" spans="1:17">
       <c r="B47" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
@@ -5089,10 +5093,10 @@
     </row>
     <row r="48" spans="1:17">
       <c r="B48" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" s="12">
         <v>1</v>
@@ -5101,10 +5105,10 @@
     </row>
     <row r="49" spans="1:17">
       <c r="B49" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -5113,10 +5117,10 @@
     </row>
     <row r="50" spans="1:17">
       <c r="B50" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -5125,10 +5129,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="B51" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -5137,10 +5141,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="B52" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -5149,10 +5153,10 @@
     </row>
     <row r="53" spans="1:17">
       <c r="B53" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
@@ -5161,10 +5165,10 @@
     </row>
     <row r="54" spans="1:17">
       <c r="B54" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
@@ -5173,10 +5177,10 @@
     </row>
     <row r="55" spans="1:17">
       <c r="B55" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -5185,10 +5189,10 @@
     </row>
     <row r="56" spans="1:17">
       <c r="B56" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
@@ -5197,10 +5201,10 @@
     </row>
     <row r="57" spans="1:17">
       <c r="B57" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -5209,10 +5213,10 @@
     </row>
     <row r="58" spans="1:17">
       <c r="B58" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -5221,10 +5225,10 @@
     </row>
     <row r="59" spans="1:17">
       <c r="B59" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D59" s="12">
         <v>1</v>
@@ -5233,10 +5237,10 @@
     </row>
     <row r="60" spans="1:17">
       <c r="B60" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60" s="12">
         <v>1</v>
@@ -5245,10 +5249,10 @@
     </row>
     <row r="61" spans="1:17">
       <c r="B61" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61" s="12">
         <v>1</v>
@@ -5257,10 +5261,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="B62" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" s="12">
         <v>1</v>
@@ -5269,10 +5273,10 @@
     </row>
     <row r="63" spans="1:17">
       <c r="B63" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D63" s="12">
         <v>1</v>
@@ -5281,10 +5285,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="B64" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64" s="12">
         <v>1</v>
@@ -5296,7 +5300,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
@@ -5305,10 +5309,10 @@
     </row>
     <row r="66" spans="1:17">
       <c r="B66" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
@@ -5317,10 +5321,10 @@
     </row>
     <row r="67" spans="1:17">
       <c r="B67" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -5329,10 +5333,10 @@
     </row>
     <row r="68" spans="1:17">
       <c r="B68" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="69" spans="1:17">
       <c r="B69" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" s="23">
         <v>1</v>
@@ -5356,7 +5360,7 @@
         <v>216</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" s="23">
         <v>1</v>
@@ -5365,10 +5369,10 @@
     </row>
     <row r="71" spans="1:17">
       <c r="B71" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D71" s="12">
         <v>1</v>
@@ -5377,10 +5381,10 @@
     </row>
     <row r="72" spans="1:17">
       <c r="B72" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" s="12">
         <v>1</v>
@@ -5389,10 +5393,10 @@
     </row>
     <row r="73" spans="1:17" customHeight="1" ht="23.25">
       <c r="B73" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D73" s="12">
         <v>1</v>
@@ -5401,10 +5405,10 @@
     </row>
     <row r="74" spans="1:17">
       <c r="B74" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
@@ -5416,7 +5420,7 @@
         <v>217</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
@@ -5452,7 +5456,7 @@
         <v>222</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12">
@@ -5562,7 +5566,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>233</v>
@@ -5578,7 +5582,7 @@
         <v>234</v>
       </c>
       <c r="B3" s="126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="12">
         <v>10</v>
@@ -5588,7 +5592,7 @@
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="24">
       <c r="A4" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>235</v>
@@ -5617,7 +5621,7 @@
         <v>238</v>
       </c>
       <c r="B6" s="126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
@@ -5641,10 +5645,10 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="15.75">
       <c r="A8" s="127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12">
         <v>4</v>
@@ -5693,10 +5697,10 @@
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="15.75">
       <c r="A12" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -5719,10 +5723,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -5764,7 +5768,7 @@
         <v>253</v>
       </c>
       <c r="B17" s="128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12">
         <v>2</v>
@@ -5790,7 +5794,7 @@
         <v>256</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" s="12">
         <v>2</v>
@@ -5800,10 +5804,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12">
         <v>2</v>
@@ -5813,10 +5817,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" s="126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" s="12">
         <v>2</v>
@@ -5842,7 +5846,7 @@
         <v>259</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="12">
         <v>2</v>
@@ -5958,7 +5962,7 @@
         <v>272</v>
       </c>
       <c r="B32" s="128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -5998,7 +6002,7 @@
         <v>277</v>
       </c>
       <c r="B35" s="128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -6063,7 +6067,7 @@
         <v>286</v>
       </c>
       <c r="B40" s="128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -6115,7 +6119,7 @@
         <v>293</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -6154,7 +6158,7 @@
         <v>298</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -6216,10 +6220,10 @@
     </row>
     <row r="52" spans="1:17" s="2" customFormat="1">
       <c r="A52" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -6405,7 +6409,7 @@
         <v>59409</v>
       </c>
       <c r="P68" s="78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q68" s="55"/>
     </row>
@@ -6525,7 +6529,7 @@
         <v>338</v>
       </c>
       <c r="P75" s="87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -6548,7 +6552,7 @@
     <row r="79" spans="1:17">
       <c r="J79" s="2"/>
       <c r="K79" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L79" s="6"/>
       <c r="O79" s="2"/>
@@ -6556,7 +6560,7 @@
     <row r="80" spans="1:17">
       <c r="J80" s="2"/>
       <c r="K80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L80" s="6">
         <v>10</v>
@@ -6624,10 +6628,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="K90" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6673,10 +6677,10 @@
     <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6705,7 +6709,7 @@
         <v>342</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="48">
         <v>1</v>
@@ -6757,10 +6761,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12">
         <v>4</v>
@@ -6776,7 +6780,7 @@
         <v>343</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="12">
         <v>4</v>
@@ -6789,10 +6793,10 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="19.5">
       <c r="A10" s="46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -6842,12 +6846,12 @@
         <v>59409</v>
       </c>
       <c r="P11" s="78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="15.75">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>233</v>
@@ -6966,7 +6970,7 @@
         <v>259</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
@@ -7020,7 +7024,7 @@
         <v>293</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
@@ -7042,15 +7046,15 @@
         <v>338</v>
       </c>
       <c r="P18" s="87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="12">
         <v>5</v>
@@ -7063,7 +7067,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>235</v>
@@ -7092,10 +7096,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="12">
         <v>2</v>
@@ -7144,10 +7148,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
@@ -7186,7 +7190,7 @@
         <v>253</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
@@ -7274,10 +7278,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="68">
         <v>1</v>
@@ -7306,7 +7310,7 @@
         <v>286</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="11"/>
@@ -7352,7 +7356,7 @@
         <v>346</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="11"/>
@@ -7363,7 +7367,7 @@
         <v>256</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="12">
         <v>2</v>
@@ -7397,10 +7401,10 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="12">
         <v>2</v>
@@ -7482,7 +7486,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="G52" s="89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -7499,7 +7503,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H53" s="6">
         <v>10</v>
@@ -7536,7 +7540,7 @@
         <v>277</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="11"/>
@@ -7597,7 +7601,7 @@
         <v>272</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7693,7 +7697,7 @@
         <v>358</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7701,7 +7705,7 @@
         <v>359</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:17" customHeight="1" ht="28.5">
@@ -7709,7 +7713,7 @@
         <v>360</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:17" customHeight="1" ht="29.25">
@@ -7725,7 +7729,7 @@
         <v>363</v>
       </c>
       <c r="B77" s="122" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="55" customFormat="1"/>
@@ -7765,10 +7769,10 @@
         <v>153</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7776,7 +7780,7 @@
         <v>364</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -7848,10 +7852,10 @@
         <v>153</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="15">
@@ -8366,10 +8370,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="1"/>
@@ -8380,10 +8384,10 @@
         <v>153</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>191</v>
@@ -8392,15 +8396,15 @@
         <v>189</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="17.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="158"/>
       <c r="C3" s="169"/>
@@ -8410,7 +8414,7 @@
         <v>192</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" s="14">
         <v>6</v>
@@ -8470,10 +8474,10 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="17.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="165">
         <v>1</v>
@@ -8503,10 +8507,10 @@
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="17.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="169">
         <v>2</v>
@@ -8528,10 +8532,10 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="17.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="169">
         <v>2</v>
@@ -8545,10 +8549,10 @@
         <v>153</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="154" t="s">
         <v>167</v>
@@ -8565,10 +8569,10 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="17.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="165">
         <v>38</v>
@@ -8602,10 +8606,10 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="17.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="150">
         <v>1</v>
@@ -8639,10 +8643,10 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="17.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="150">
         <v>3</v>
@@ -8664,10 +8668,10 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="17.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="165">
         <v>1</v>
@@ -8681,10 +8685,10 @@
         <v>153</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="158" t="s">
         <v>170</v>
@@ -8701,10 +8705,10 @@
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="17.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="150">
         <v>1</v>
@@ -8736,10 +8740,10 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="17.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="165">
         <v>1</v>
@@ -8773,10 +8777,10 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="17.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="150">
         <v>1</v>
@@ -8804,10 +8808,10 @@
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="17.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="164" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="150">
         <v>1</v>
@@ -8841,10 +8845,10 @@
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="25.5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="169">
         <v>1</v>
@@ -8878,10 +8882,10 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="17.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="169">
         <v>2</v>
@@ -8915,10 +8919,10 @@
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="17.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="169">
         <v>1</v>
@@ -8952,10 +8956,10 @@
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="17.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="165">
         <v>3</v>
@@ -8989,10 +8993,10 @@
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="17.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="150">
         <v>3</v>
@@ -9026,10 +9030,10 @@
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="17.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="165">
         <v>6</v>
@@ -9063,10 +9067,10 @@
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="17.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="165">
         <v>1</v>
@@ -9088,10 +9092,10 @@
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="17.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="165">
         <v>1</v>
@@ -9105,10 +9109,10 @@
         <v>153</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="164" t="s">
         <v>390</v>
@@ -9125,10 +9129,10 @@
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="17.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="165">
         <v>1</v>
@@ -9139,7 +9143,7 @@
         <v>364</v>
       </c>
       <c r="I24" s="140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" s="144">
         <v>1</v>
@@ -9162,10 +9166,10 @@
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="17.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="165">
         <v>2</v>
@@ -9199,10 +9203,10 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="17.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="169">
         <v>2</v>
@@ -9236,10 +9240,10 @@
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="17.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="169">
         <v>3</v>
@@ -9261,10 +9265,10 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="17.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="169">
         <v>2</v>
@@ -9289,10 +9293,10 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="17.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="165">
         <v>2</v>
@@ -9317,10 +9321,10 @@
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="17.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="169">
         <v>37</v>
@@ -9337,10 +9341,10 @@
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="17.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="165">
         <v>1</v>
@@ -9353,10 +9357,10 @@
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="17.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="165">
         <v>1</v>
@@ -9369,10 +9373,10 @@
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="17.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="165">
         <v>1</v>
@@ -9385,10 +9389,10 @@
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="17.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="171" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="169">
         <v>2</v>
@@ -9401,10 +9405,10 @@
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="17.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="158" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="150">
         <v>5</v>
@@ -9415,10 +9419,10 @@
     </row>
     <row r="36" spans="1:17" customHeight="1" ht="17.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="164" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="165">
         <v>1</v>
@@ -9429,10 +9433,10 @@
     </row>
     <row r="37" spans="1:17" customHeight="1" ht="17.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="170" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="169">
         <v>1</v>
@@ -9442,10 +9446,10 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="17.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="150">
         <v>1</v>
@@ -9455,10 +9459,10 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="17.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="170" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="169">
         <v>1</v>
@@ -9468,10 +9472,10 @@
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="17.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="165">
         <v>1</v>
@@ -9481,10 +9485,10 @@
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="17.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="165">
         <v>1</v>
@@ -9494,10 +9498,10 @@
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="17.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="169">
         <v>5</v>
@@ -9507,10 +9511,10 @@
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="17.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="150">
         <v>1</v>
@@ -9520,10 +9524,10 @@
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="17.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="158" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="150">
         <v>1</v>
@@ -9533,10 +9537,10 @@
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="17.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="165">
         <v>1</v>
@@ -9546,10 +9550,10 @@
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="17.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="158" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="150">
         <v>1</v>
@@ -9559,10 +9563,10 @@
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="17.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="165">
         <v>2</v>
@@ -9572,10 +9576,10 @@
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="17.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="150">
         <v>2</v>
@@ -9585,10 +9589,10 @@
     </row>
     <row r="49" spans="1:17" customHeight="1" ht="17.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="165">
         <v>5</v>
@@ -9598,10 +9602,10 @@
     </row>
     <row r="50" spans="1:17" customHeight="1" ht="17.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="165">
         <v>1</v>
@@ -9611,10 +9615,10 @@
     </row>
     <row r="51" spans="1:17" customHeight="1" ht="17.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="170" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="169">
         <v>1</v>
@@ -9624,10 +9628,10 @@
     </row>
     <row r="52" spans="1:17" customHeight="1" ht="17.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="158" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="165">
         <v>1</v>
@@ -9637,32 +9641,32 @@
     </row>
     <row r="53" spans="1:17" customHeight="1" ht="17.25">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="170" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="169">
         <v>1</v>
       </c>
       <c r="D53" s="150"/>
       <c r="E53" s="150" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:17" customHeight="1" ht="17.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="150">
         <v>1</v>
       </c>
       <c r="D54" s="150"/>
       <c r="E54" s="150" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -9670,10 +9674,10 @@
     </row>
     <row r="55" spans="1:17" customHeight="1" ht="17.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="170" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="165">
         <v>1</v>
@@ -9683,10 +9687,10 @@
     </row>
     <row r="56" spans="1:17" customHeight="1" ht="17.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="164" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="165">
         <v>5</v>
@@ -9696,10 +9700,10 @@
     </row>
     <row r="57" spans="1:17" customHeight="1" ht="17.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="170" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="169">
         <v>1</v>
@@ -9709,10 +9713,10 @@
     </row>
     <row r="58" spans="1:17" customHeight="1" ht="17.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="165">
         <v>8</v>
@@ -9722,10 +9726,10 @@
     </row>
     <row r="59" spans="1:17" customHeight="1" ht="17.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="170" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="165">
         <v>1</v>
@@ -9735,10 +9739,10 @@
     </row>
     <row r="60" spans="1:17" customHeight="1" ht="17.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="165">
         <v>2</v>
@@ -9748,10 +9752,10 @@
     </row>
     <row r="61" spans="1:17" customHeight="1" ht="17.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="165">
         <v>1</v>
@@ -9761,10 +9765,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B62" s="158" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="150">
         <v>1</v>
@@ -9774,10 +9778,10 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B63" s="158" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="169">
         <v>1</v>
@@ -9787,10 +9791,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B64" s="173" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="150">
         <v>2</v>
@@ -9800,10 +9804,10 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B65" s="173" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="169">
         <v>1</v>
@@ -9813,10 +9817,10 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="169">
         <v>5</v>
@@ -9826,16 +9830,16 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B67" s="168" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="150">
         <v>2</v>
       </c>
       <c r="D67" s="150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E67" s="151">
         <v>1</v>
@@ -9843,10 +9847,10 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" s="168" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="150">
         <v>1</v>
@@ -9856,10 +9860,10 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="168" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="150">
         <v>1</v>
@@ -9869,10 +9873,10 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="168" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="150">
         <v>1</v>
@@ -9882,10 +9886,10 @@
     </row>
     <row r="71" spans="1:17" customHeight="1" ht="23.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -9894,10 +9898,10 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9906,10 +9910,10 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -9918,10 +9922,10 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9930,10 +9934,10 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -9942,10 +9946,10 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76">
         <v>7</v>
